--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3687.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3687.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.287545990751793</v>
+        <v>3.836640596389771</v>
       </c>
       <c r="B1">
-        <v>2.778638876281465</v>
+        <v>4.23958158493042</v>
       </c>
       <c r="C1">
-        <v>8.344863432685786</v>
+        <v>2.800498962402344</v>
       </c>
       <c r="D1">
-        <v>2.04616800973984</v>
+        <v>2.319116592407227</v>
       </c>
       <c r="E1">
-        <v>1.102613271373493</v>
+        <v>1.872685670852661</v>
       </c>
     </row>
   </sheetData>
